--- a/xlsx/月球_intext.xlsx
+++ b/xlsx/月球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1092">
   <si>
     <t>月球</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地球</t>
   </si>
   <si>
-    <t>政策_政策_美國_月球</t>
+    <t>政策_政策_美国_月球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%9C%88</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%8F%83%E6%95%B8</t>
   </si>
   <si>
-    <t>軌道參數</t>
+    <t>轨道参数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%BB%9E</t>
   </si>
   <si>
-    <t>拱點</t>
+    <t>拱点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%B1%B3</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>天文單位</t>
+    <t>天文单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%95%B7%E8%BB%B8</t>
   </si>
   <si>
-    <t>半長軸</t>
+    <t>半长轴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E9%9B%A2%E5%BF%83%E7%8E%87</t>
   </si>
   <si>
-    <t>軌道離心率</t>
+    <t>轨道离心率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A8%E9%81%93%E5%91%A8%E6%9C%9F</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%82%BE%E8%A7%92</t>
   </si>
   <si>
-    <t>軌道傾角</t>
+    <t>轨道倾角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%81%93</t>
   </si>
   <si>
-    <t>黃道</t>
+    <t>黄道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E4%BA%A4%E9%BB%9E%E9%BB%83%E7%B6%93</t>
   </si>
   <si>
-    <t>升交點黃經</t>
+    <t>升交点黄经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%BF%83%E9%BB%9E%E5%B9%85%E8%A7%92</t>
   </si>
   <si>
-    <t>近心點幅角</t>
+    <t>近心点幅角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>天然衛星</t>
+    <t>天然卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A5%B5</t>
   </si>
   <si>
-    <t>兩極</t>
+    <t>两极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%81%E7%8E%87</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E7%90%83%E9%9D%A2</t>
   </si>
   <si>
-    <t>類球面</t>
+    <t>类球面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E7%A9%8D</t>
   </si>
   <si>
-    <t>體積</t>
+    <t>体积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F</t>
   </si>
   <si>
-    <t>質量</t>
+    <t>质量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6</t>
@@ -191,25 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%BD%89%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>自轉週期</t>
+    <t>自转周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%AD%A5%E8%87%AA%E8%BD%89</t>
   </si>
   <si>
-    <t>同步自轉</t>
+    <t>同步自转</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E8%BB%B8%E5%82%BE%E8%A7%92</t>
   </si>
   <si>
-    <t>轉軸傾角</t>
+    <t>转轴倾角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E5%B9%B3%E9%9D%A2</t>
   </si>
   <si>
-    <t>軌道平面</t>
+    <t>轨道平面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%85%A7%E7%8E%87</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6%E6%B8%A9%E6%A0%87</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E6%98%9F%E7%AD%89</t>
   </si>
   <si>
-    <t>視星等</t>
+    <t>视星等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E7%9B%B4%E5%BE%91</t>
   </si>
   <si>
-    <t>角直徑</t>
+    <t>角直径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E5%88%86</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%A3%93</t>
   </si>
   <si>
-    <t>氣壓</t>
+    <t>气压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%8D%A1</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>衛星</t>
+    <t>卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E7%B3%BB</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%9A%84%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>地球的年齡</t>
+    <t>地球的年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E9%8E%96%E5%AE%9A</t>
   </si>
   <si>
-    <t>潮汐鎖定</t>
+    <t>潮汐锁定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%AD%A3%E9%9D%A2</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%99%B8%E6%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>登陸月球</t>
+    <t>登陆月球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -491,13 +491,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A2%B0%E6%92%9E%E8%AA%AA</t>
   </si>
   <si>
-    <t>大碰撞說</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%85%A7%E9%83%A8%E6%A7%8B%E9%80%A0</t>
   </si>
   <si>
-    <t>月球內部構造</t>
+    <t>月球内部构造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E8%B4%A8%E5%AD%A6</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E8%9D%95</t>
   </si>
   <si>
-    <t>月蝕</t>
+    <t>月蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E6%85%8E</t>
   </si>
   <si>
-    <t>許慎</t>
+    <t>许慎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B4%E6%96%87%E8%A7%A3%E5%AD%97</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始日耳曼語</t>
+    <t>原始日耳曼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%8B%B1%E8%AF%AD</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%9C%B0%E8%B3%AA</t>
   </si>
   <si>
-    <t>月球地質</t>
+    <t>月球地质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%BF%83%E5%8A%9B</t>
   </si>
   <si>
-    <t>離心力</t>
+    <t>离心力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%A4%A7%E6%B0%94%E5%B1%82</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>隕石</t>
+    <t>陨石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B6%E7%A5%9E%E6%98%9F</t>
@@ -683,19 +680,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%B2%A9%E6%BC%BF%E6%B5%B7</t>
   </si>
   <si>
-    <t>月球岩漿海</t>
+    <t>月球岩浆海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%9A%B4%E6%B4%8B</t>
   </si>
   <si>
-    <t>風暴洋</t>
+    <t>风暴洋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E6%BA%AF%E5%8F%8A%E5%85%A7%E9%83%A8%E7%B5%90%E6%A7%8B%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>重力回溯及內部結構實驗室</t>
+    <t>重力回溯及内部结构实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A1%85</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%88%A6</t>
   </si>
   <si>
-    <t>二氧化鈦</t>
+    <t>二氧化钛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%92%A0</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%88%86%E7%95%B0</t>
   </si>
   <si>
-    <t>行星分異</t>
+    <t>行星分异</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%A3%B3</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%9C%E9%95%B7%E5%B2%A9</t>
   </si>
   <si>
-    <t>斜長岩</t>
+    <t>斜长岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%BB%E5%9C%B0%E8%A1%8C%E6%98%9F</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/3D%E7%9C%BC%E9%8F%A1</t>
   </si>
   <si>
-    <t>3D眼鏡</t>
+    <t>3D眼镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5-%E8%89%BE%E6%89%98%E8%82%AF%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>南極-艾托肯盆地</t>
+    <t>南极-艾托肯盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%B5%B7</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>東方海</t>
+    <t>东方海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%97%E7%99%BB%E6%9C%88</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%BE%E7%8B%80%E7%81%AB%E5%B1%B1</t>
   </si>
   <si>
-    <t>盾狀火山</t>
+    <t>盾状火山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%8E%A2%E5%8B%98%E8%80%85</t>
@@ -917,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%9E%E6%93%8A%E5%9D%91%E8%A8%88%E6%95%B8</t>
   </si>
   <si>
-    <t>撞擊坑計數</t>
+    <t>撞击坑计数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E7%92%B0%E5%BD%A2%E5%B1%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>月球環形山列表</t>
+    <t>月球环形山列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
@@ -959,9 +956,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E9%87%8D%E8%BD%9F%E7%82%B8%E6%9C%9F</t>
   </si>
   <si>
-    <t>後期重轟炸期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%89%E7%A2%8E</t>
   </si>
   <si>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%B1%80%E8%99%9F</t>
   </si>
   <si>
-    <t>克萊門汀號</t>
+    <t>克莱门汀号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%A7%A3</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E8%8A%92%E8%92%82%E5%A8%9C_(%E5%A4%AA%E7%A9%BA%E8%88%B9)</t>
   </si>
   <si>
-    <t>克萊芒蒂娜 (太空船)</t>
+    <t>克莱芒蒂娜 (太空船)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9B%B7%E8%A5%BF%E5%8D%9A%E5%A4%A9%E6%96%87%E5%8F%B0</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E7%98%A4</t>
   </si>
   <si>
-    <t>質量瘤</t>
+    <t>质量瘤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%A3%81%E5%9C%BA</t>
@@ -1079,19 +1073,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%A0%B4</t>
   </si>
   <si>
-    <t>磁場</t>
+    <t>磁场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E8%B9%A0%E9%BB%9E</t>
   </si>
   <si>
-    <t>對蹠點</t>
+    <t>对蹠点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E5%B1%A4</t>
   </si>
   <si>
-    <t>月球大氣層</t>
+    <t>月球大气层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%A9%BA</t>
@@ -1193,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>月球軌道</t>
+    <t>月球轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%81%8B%E5%8B%95%E8%AA%AA</t>
   </si>
   <si>
-    <t>月球運動說</t>
+    <t>月球运动说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BD%8D</t>
@@ -1217,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%8B%95</t>
   </si>
   <si>
-    <t>攝動</t>
+    <t>摄动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8B%95</t>
   </si>
   <si>
-    <t>進動</t>
+    <t>进动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E5%B0%BC%E5%AE%9A%E5%BE%8B</t>
@@ -1235,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E5%BF%83</t>
   </si>
   <si>
-    <t>質心</t>
+    <t>质心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%AD%E5%9C%86</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%81%93%E9%9D%A2</t>
   </si>
   <si>
-    <t>黃道面</t>
+    <t>黄道面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BA%BF</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E5%8B%95</t>
   </si>
   <si>
-    <t>章動</t>
+    <t>章动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%B4%AA</t>
@@ -1289,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E5%91%A8%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>圓周運動</t>
+    <t>圆周运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%9C%B0%E7%82%B9</t>
@@ -1301,13 +1295,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E5%9C%B0%E9%BB%9E</t>
   </si>
   <si>
-    <t>遠地點</t>
+    <t>远地点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A7%A4%E5%8B%95</t>
   </si>
   <si>
-    <t>天秤動</t>
+    <t>天秤动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%A5%E5%8D%AB%E4%B8%80</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>質量中心</t>
+    <t>质量中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%85%A7</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%A7%80%E6%B8%AC</t>
   </si>
   <si>
-    <t>月球觀測</t>
+    <t>月球观测</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
@@ -1355,13 +1349,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E9%82%8A%E6%98%8F%E6%9A%97</t>
   </si>
   <si>
-    <t>周邊昏暗</t>
+    <t>周边昏暗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%8C%AF%E8%A6%BA</t>
   </si>
   <si>
-    <t>月球錯覺</t>
+    <t>月球错觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BA%A6</t>
@@ -1373,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E4%BA%A4%E9%BB%9E</t>
   </si>
   <si>
-    <t>月球交點</t>
+    <t>月球交点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E4%BA%A4%E9%BB%9E</t>
   </si>
   <si>
-    <t>軌道交點</t>
+    <t>轨道交点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%88%86%E7%82%B9</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%88</t>
   </si>
   <si>
-    <t>暈</t>
+    <t>晕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E5%8A%9B</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E9%90%98</t>
   </si>
   <si>
-    <t>原子鐘</t>
+    <t>原子钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E9%87%8F%E7%BA%A7_(%E6%97%B6%E9%97%B4)</t>
@@ -1463,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%A8%E6%98%9F</t>
   </si>
   <si>
-    <t>紅巨星</t>
+    <t>红巨星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E9%9C%87</t>
@@ -1475,19 +1469,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87%E5%84%80</t>
   </si>
   <si>
-    <t>地震儀</t>
+    <t>地震仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%9D%95</t>
   </si>
   <si>
-    <t>日蝕</t>
+    <t>日蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9D%95%E7%9A%84%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>蝕的週期</t>
+    <t>蚀的周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%B0%E5%85%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%8F%B0</t>
@@ -1529,9 +1523,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%81%93</t>
   </si>
   <si>
-    <t>黄道</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%BD%97%E5%91%A8%E6%9C%9F</t>
   </si>
   <si>
@@ -1559,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%B5%AB%E7%B6%AD%E7%95%99</t>
   </si>
   <si>
-    <t>約翰·赫維留</t>
+    <t>约翰·赫维留</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A9%E6%96%87%E5%AD%A6%E5%8F%B2</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3</t>
   </si>
   <si>
-    <t>氣</t>
+    <t>气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%88%BF_(%E9%AD%8F%E9%83%A1%E5%A4%AA%E5%AE%88)</t>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8F%A1%E5%AD%90</t>
   </si>
   <si>
-    <t>鏡子</t>
+    <t>镜子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E5%85%89</t>
@@ -1661,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E8%A5%BF%E4%BA%9E%E7%9A%84%E5%A1%9E%E7%90%89%E5%8F%A4</t>
   </si>
   <si>
-    <t>塞琉西亞的塞琉古</t>
+    <t>塞琉西亚的塞琉古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E6%96%AF%E5%A1%94%E5%85%8B%E6%96%AF</t>
@@ -1709,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E4%BF%A1%E4%BD%BF</t>
   </si>
   <si>
-    <t>星際信使</t>
+    <t>星际信使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E4%B8%87%E5%B0%BC%C2%B7%E5%B7%B4%E8%92%82%E6%96%AF%E5%A1%94%C2%B7%E9%87%8C%E4%B9%94%E5%88%A9</t>
@@ -1745,19 +1736,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>尼爾·阿姆斯壯</t>
+    <t>尼尔·阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E5%A1%9E%E5%B0%94%E5%8D%97</t>
@@ -1823,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%A4%9C</t>
   </si>
   <si>
-    <t>聖誕夜</t>
+    <t>圣诞夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%91%98</t>
@@ -1853,13 +1844,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>測量員計畫</t>
+    <t>测量员计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A11%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員1號</t>
+    <t>测量员1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%B0%94%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -1877,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E8%9D%95</t>
   </si>
   <si>
-    <t>燒蝕</t>
+    <t>烧蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
@@ -1955,13 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%B9%E7%81%A3</t>
   </si>
   <si>
-    <t>虹灣</t>
+    <t>虹湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>宇宙航空研究開發機構</t>
+    <t>宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E4%BA%AE%E5%A5%B3%E7%A5%9E_(%E8%88%AA%E5%A4%A9%E5%99%A8)</t>
@@ -2045,9 +2036,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E6%9B%86</t>
   </si>
   <si>
-    <t>陰曆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%86%AC%E7%AB%A0</t>
   </si>
   <si>
@@ -2057,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E6%9C%88</t>
   </si>
   <si>
-    <t>藍月</t>
+    <t>蓝月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%9B%BD%E6%97%97</t>
@@ -2081,13 +2069,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E5%B0%BC</t>
   </si>
   <si>
-    <t>瑪尼</t>
+    <t>玛尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%88%BE_(%E5%8C%97%E6%AD%90%E7%A5%9E%E8%A9%B1)</t>
   </si>
   <si>
-    <t>蘇爾 (北歐神話)</t>
+    <t>苏尔 (北欧神话)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B3%E5%8E%86</t>
@@ -2135,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>天文符號</t>
+    <t>天文符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7%E7%A5%9E%E8%AF%9D</t>
@@ -2177,19 +2165,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E6%8E%A2%E6%B8%AC%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太陽系探測器列表</t>
+    <t>太阳系探测器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E6%8E%A2%E7%B4%A2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>太陽系探索年表</t>
+    <t>太阳系探索年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%9A%84%E5%85%B6%E4%BB%96%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>地球的其他衛星</t>
+    <t>地球的其他卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%99%A8%E7%9F%B3%E5%9D%91</t>
@@ -2231,13 +2219,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
-    <t>雙行星</t>
+    <t>双行星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E8%8E%8A</t>
   </si>
   <si>
-    <t>謝莊</t>
+    <t>谢庄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%94</t>
@@ -2267,7 +2255,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>http://www.worldwindcentral.com/wiki/Moon</t>
@@ -2309,13 +2297,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%9C%88%E5%91%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>滿月周期</t>
+    <t>满月周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%B9%B3%E5%8B%95</t>
   </si>
   <si>
-    <t>天平動</t>
+    <t>天平动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%97%A5%E9%A3%9F</t>
@@ -2357,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%85%8B%E7%88%BE%E9%A0%93%E5%9D%91</t>
   </si>
   <si>
-    <t>沙克爾頓坑</t>
+    <t>沙克尔顿坑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lunar_water</t>
@@ -2381,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A2%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>太空風化</t>
+    <t>太空风化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E7%9E%AC%E5%8F%98%E7%8E%B0%E8%B1%A1</t>
@@ -2393,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>月球隕石</t>
+    <t>月球陨石</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Apollo_Lunar_Surface_Experiments_Package</t>
@@ -2411,15 +2399,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>月球旅遊</t>
+    <t>月球旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E5%8A%A8</t>
   </si>
   <si>
-    <t>章动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%98%9F%E6%9C%88</t>
   </si>
   <si>
@@ -2429,7 +2414,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E6%9C%88%E4%BA%AE</t>
   </si>
   <si>
-    <t>超級月亮</t>
+    <t>超级月亮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%9A%84%E5%8D%AB%E6%98%9F</t>
@@ -2441,25 +2426,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%80%85%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先驅者計劃</t>
+    <t>先驱者计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>游騎兵計畫</t>
+    <t>游骑兵计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A8%E8%99%9F%E7%B3%BB%E5%88%97%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>探測器號系列探測器</t>
+    <t>探测器号系列探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>月球軌道計畫</t>
+    <t>月球轨道计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%853%E5%8F%B7</t>
@@ -2483,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A85%E8%99%9F</t>
   </si>
   <si>
-    <t>探測器5號</t>
+    <t>探测器5号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zond_6</t>
@@ -2513,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%98%E6%9C%9B%E8%99%9F</t>
   </si>
   <si>
-    <t>願望號</t>
+    <t>愿望号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E5%B0%BC-%E6%83%A0%E6%9B%B4%E6%96%AF%E5%8F%B7</t>
@@ -2603,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E8%88%87%E7%B2%89%E5%A1%B5%E7%92%B0%E5%A2%83%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>月球大氣與粉塵環境探測器</t>
+    <t>月球大气与粉尘环境探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%8313%E5%8F%B7</t>
@@ -2639,55 +2624,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B53%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵3號</t>
+    <t>游骑兵3号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B54%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵4號</t>
+    <t>游骑兵4号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B55%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵5號</t>
+    <t>游骑兵5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B56%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵6號</t>
+    <t>游骑兵6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B57%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵7號</t>
+    <t>游骑兵7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B58%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵8號</t>
+    <t>游骑兵8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B59%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵9號</t>
+    <t>游骑兵9号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A16%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員6號</t>
+    <t>测量员6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A17%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員7號</t>
+    <t>测量员7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%85%94%E5%8F%B7%E6%9C%88%E7%90%83%E8%BD%A6</t>
@@ -2753,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E5%A5%B3%E7%A5%9E%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>曙光女神計劃</t>
+    <t>曙光女神计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B5%E7%89%9B%E6%98%9F%E5%8F%B7</t>
@@ -2765,43 +2750,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>火星的衛星</t>
+    <t>火星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>木星的衛星</t>
+    <t>木星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>土星的衛星</t>
+    <t>土星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%8E%8B%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>天王星的衛星</t>
+    <t>天王星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>海王星的衛星</t>
+    <t>海王星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%A9%E8%A1%9B%E4%B8%80</t>
   </si>
   <si>
-    <t>鬩衛一</t>
+    <t>阋卫一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%8A%E7%A5%9E%E6%98%9F%E7%9A%84%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>妊神星的衛星</t>
+    <t>妊神星的卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S/2015_(136472)_1</t>
@@ -2813,37 +2798,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%A1%9B%E4%B8%89</t>
   </si>
   <si>
-    <t>木衛三</t>
+    <t>木卫三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%A1%9B%E5%85%AD</t>
   </si>
   <si>
-    <t>土衛六</t>
+    <t>土卫六</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%A1%9B%E5%9B%9B</t>
   </si>
   <si>
-    <t>木衛四</t>
+    <t>木卫四</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%A1%9B%E4%B8%80</t>
   </si>
   <si>
-    <t>木衛一</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%A1%9B%E4%BA%8C</t>
   </si>
   <si>
-    <t>木衛二</t>
+    <t>木卫二</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%A1%9B%E4%B8%80</t>
   </si>
   <si>
-    <t>海衛一</t>
+    <t>海卫一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%8D%AB%E4%B8%89</t>
@@ -2867,15 +2849,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%A1%9B%E5%85%AB</t>
   </si>
   <si>
-    <t>土衛八</t>
+    <t>土卫八</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%A5%E8%A1%9B%E4%B8%80</t>
   </si>
   <si>
-    <t>冥衛一</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%8D%AB%E4%BA%8C</t>
   </si>
   <si>
@@ -2933,7 +2912,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E8%A6%8F%E5%89%87%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>不規則衛星</t>
+    <t>不规则卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%8F%91%E7%8E%B0%E6%97%B6%E9%97%B4%E5%88%97%E8%A1%A8</t>
@@ -2945,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%9C%88</t>
   </si>
   <si>
-    <t>太陽圈</t>
+    <t>太阳圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%98%9F</t>
@@ -2957,9 +2936,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>火星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%98%9F</t>
   </si>
   <si>
@@ -2969,9 +2945,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>木星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%98%9F%E7%8E%AF</t>
   </si>
   <si>
@@ -2987,9 +2960,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>土星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E7%8E%AF</t>
   </si>
   <si>
@@ -3005,9 +2975,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%8E%8B%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>天王星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%8E%8B%E6%98%9F%E7%8E%AF</t>
   </si>
   <si>
@@ -3023,9 +2990,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>海王星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%8E%8B%E6%98%9F%E7%8E%AF</t>
   </si>
   <si>
@@ -3047,9 +3011,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A6%8A%E7%A5%9E%E6%98%9F%E7%9A%84%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>妊神星的卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%8B%E7%A5%9E%E6%98%9F</t>
   </si>
   <si>
@@ -3059,13 +3020,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%8B%E5%8D%AB%E4%B8%80</t>
   </si>
   <si>
-    <t>阋卫一</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E5%B0%8F%E5%A4%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>太陽系小天體</t>
+    <t>太阳系小天体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E8%A1%8C%E6%98%9F</t>
@@ -3083,7 +3041,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B0%8F%E8%A1%8C%E6%98%9F%E5%B8%B6</t>
   </si>
   <si>
-    <t>主小行星帶</t>
+    <t>主小行星带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E5%B0%8F%E8%A1%8C%E6%98%9F</t>
@@ -3281,7 +3239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3305,7 +3263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3317,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4431,7 +4389,7 @@
         <v>48</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -4489,7 +4447,7 @@
         <v>52</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -6081,7 +6039,7 @@
         <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -6107,10 +6065,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -6136,10 +6094,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6165,10 +6123,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -6194,10 +6152,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -6223,10 +6181,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6252,10 +6210,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>9</v>
@@ -6281,10 +6239,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -6310,10 +6268,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6339,10 +6297,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -6368,10 +6326,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6397,10 +6355,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6426,10 +6384,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -6455,10 +6413,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6484,10 +6442,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6513,10 +6471,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -6542,10 +6500,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6571,10 +6529,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6629,10 +6587,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -6661,7 +6619,7 @@
         <v>157</v>
       </c>
       <c r="F103" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -6687,10 +6645,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
         <v>195</v>
-      </c>
-      <c r="F104" t="s">
-        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6716,10 +6674,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
         <v>197</v>
-      </c>
-      <c r="F105" t="s">
-        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6745,10 +6703,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
-      </c>
-      <c r="F106" t="s">
-        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6774,10 +6732,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -6803,10 +6761,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6832,10 +6790,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6861,10 +6819,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6890,10 +6848,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>11</v>
@@ -6919,10 +6877,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6948,10 +6906,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6977,10 +6935,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -7006,10 +6964,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -7035,10 +6993,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>8</v>
@@ -7064,10 +7022,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -7093,10 +7051,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7122,10 +7080,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7151,10 +7109,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>158</v>
+      </c>
+      <c r="F120" t="s">
         <v>159</v>
-      </c>
-      <c r="F120" t="s">
-        <v>160</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7180,10 +7138,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" t="s">
         <v>227</v>
-      </c>
-      <c r="F121" t="s">
-        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7209,10 +7167,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>228</v>
+      </c>
+      <c r="F122" t="s">
         <v>229</v>
-      </c>
-      <c r="F122" t="s">
-        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7238,10 +7196,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" t="s">
         <v>231</v>
-      </c>
-      <c r="F123" t="s">
-        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7267,10 +7225,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" t="s">
         <v>233</v>
-      </c>
-      <c r="F124" t="s">
-        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7296,10 +7254,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>234</v>
+      </c>
+      <c r="F125" t="s">
         <v>235</v>
-      </c>
-      <c r="F125" t="s">
-        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7325,10 +7283,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
-      </c>
-      <c r="F126" t="s">
-        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7354,10 +7312,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
         <v>239</v>
-      </c>
-      <c r="F127" t="s">
-        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7383,10 +7341,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" t="s">
         <v>241</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7412,10 +7370,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
         <v>243</v>
-      </c>
-      <c r="F129" t="s">
-        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>11</v>
@@ -7441,10 +7399,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
         <v>245</v>
-      </c>
-      <c r="F130" t="s">
-        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>7</v>
@@ -7470,10 +7428,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -7499,10 +7457,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7528,10 +7486,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7557,10 +7515,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7586,10 +7544,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" t="s">
         <v>253</v>
-      </c>
-      <c r="F135" t="s">
-        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7615,10 +7573,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>254</v>
+      </c>
+      <c r="F136" t="s">
         <v>255</v>
-      </c>
-      <c r="F136" t="s">
-        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7644,10 +7602,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>256</v>
+      </c>
+      <c r="F137" t="s">
         <v>257</v>
-      </c>
-      <c r="F137" t="s">
-        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7673,10 +7631,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>258</v>
+      </c>
+      <c r="F138" t="s">
         <v>259</v>
-      </c>
-      <c r="F138" t="s">
-        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7760,10 +7718,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141" t="s">
         <v>261</v>
-      </c>
-      <c r="F141" t="s">
-        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7789,10 +7747,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" t="s">
         <v>263</v>
-      </c>
-      <c r="F142" t="s">
-        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7818,10 +7776,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>264</v>
+      </c>
+      <c r="F143" t="s">
         <v>265</v>
-      </c>
-      <c r="F143" t="s">
-        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7847,10 +7805,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" t="s">
         <v>195</v>
-      </c>
-      <c r="F144" t="s">
-        <v>196</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -7963,10 +7921,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>192</v>
+      </c>
+      <c r="F148" t="s">
         <v>193</v>
-      </c>
-      <c r="F148" t="s">
-        <v>194</v>
       </c>
       <c r="G148" t="n">
         <v>12</v>
@@ -7992,10 +7950,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" t="s">
         <v>267</v>
-      </c>
-      <c r="F149" t="s">
-        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8021,10 +7979,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>268</v>
+      </c>
+      <c r="F150" t="s">
         <v>269</v>
-      </c>
-      <c r="F150" t="s">
-        <v>270</v>
       </c>
       <c r="G150" t="n">
         <v>13</v>
@@ -8050,10 +8008,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" t="s">
         <v>271</v>
-      </c>
-      <c r="F151" t="s">
-        <v>272</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8079,10 +8037,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>272</v>
+      </c>
+      <c r="F152" t="s">
         <v>273</v>
-      </c>
-      <c r="F152" t="s">
-        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -8108,10 +8066,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>274</v>
+      </c>
+      <c r="F153" t="s">
         <v>275</v>
-      </c>
-      <c r="F153" t="s">
-        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8137,10 +8095,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>276</v>
+      </c>
+      <c r="F154" t="s">
         <v>277</v>
-      </c>
-      <c r="F154" t="s">
-        <v>278</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8166,10 +8124,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F155" t="s">
         <v>279</v>
-      </c>
-      <c r="F155" t="s">
-        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8195,10 +8153,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" t="s">
         <v>281</v>
-      </c>
-      <c r="F156" t="s">
-        <v>282</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8224,10 +8182,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>196</v>
+      </c>
+      <c r="F157" t="s">
         <v>197</v>
-      </c>
-      <c r="F157" t="s">
-        <v>198</v>
       </c>
       <c r="G157" t="n">
         <v>8</v>
@@ -8253,10 +8211,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>282</v>
+      </c>
+      <c r="F158" t="s">
         <v>283</v>
-      </c>
-      <c r="F158" t="s">
-        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8282,10 +8240,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159" t="s">
         <v>285</v>
-      </c>
-      <c r="F159" t="s">
-        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>34</v>
@@ -8311,10 +8269,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160" t="s">
         <v>287</v>
-      </c>
-      <c r="F160" t="s">
-        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>5</v>
@@ -8340,10 +8298,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>288</v>
+      </c>
+      <c r="F161" t="s">
         <v>289</v>
-      </c>
-      <c r="F161" t="s">
-        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -8369,10 +8327,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>290</v>
+      </c>
+      <c r="F162" t="s">
         <v>291</v>
-      </c>
-      <c r="F162" t="s">
-        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8398,10 +8356,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" t="s">
         <v>293</v>
-      </c>
-      <c r="F163" t="s">
-        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -8427,10 +8385,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>294</v>
+      </c>
+      <c r="F164" t="s">
         <v>295</v>
-      </c>
-      <c r="F164" t="s">
-        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8456,10 +8414,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>296</v>
+      </c>
+      <c r="F165" t="s">
         <v>297</v>
-      </c>
-      <c r="F165" t="s">
-        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8485,10 +8443,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>298</v>
+      </c>
+      <c r="F166" t="s">
         <v>299</v>
-      </c>
-      <c r="F166" t="s">
-        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8514,10 +8472,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>300</v>
+      </c>
+      <c r="F167" t="s">
         <v>301</v>
-      </c>
-      <c r="F167" t="s">
-        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8543,10 +8501,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>288</v>
+      </c>
+      <c r="F168" t="s">
         <v>289</v>
-      </c>
-      <c r="F168" t="s">
-        <v>290</v>
       </c>
       <c r="G168" t="n">
         <v>10</v>
@@ -8572,10 +8530,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>302</v>
+      </c>
+      <c r="F169" t="s">
         <v>303</v>
-      </c>
-      <c r="F169" t="s">
-        <v>304</v>
       </c>
       <c r="G169" t="n">
         <v>20</v>
@@ -8601,10 +8559,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>304</v>
+      </c>
+      <c r="F170" t="s">
         <v>305</v>
-      </c>
-      <c r="F170" t="s">
-        <v>306</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -8630,10 +8588,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>306</v>
+      </c>
+      <c r="F171" t="s">
         <v>307</v>
-      </c>
-      <c r="F171" t="s">
-        <v>308</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8659,10 +8617,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>296</v>
+      </c>
+      <c r="F172" t="s">
         <v>297</v>
-      </c>
-      <c r="F172" t="s">
-        <v>298</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8688,10 +8646,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" t="s">
         <v>309</v>
-      </c>
-      <c r="F173" t="s">
-        <v>310</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8717,10 +8675,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>310</v>
+      </c>
+      <c r="F174" t="s">
         <v>311</v>
-      </c>
-      <c r="F174" t="s">
-        <v>312</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8775,10 +8733,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F176" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8804,10 +8762,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8833,10 +8791,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F178" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G178" t="n">
         <v>7</v>
@@ -8862,10 +8820,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F179" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8891,10 +8849,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8920,10 +8878,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8949,10 +8907,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G182" t="n">
         <v>4</v>
@@ -8978,10 +8936,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9007,10 +8965,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -9036,10 +8994,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F185" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9065,10 +9023,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9094,10 +9052,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F187" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -9123,10 +9081,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9152,10 +9110,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F189" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G189" t="n">
         <v>8</v>
@@ -9181,10 +9139,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F190" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9210,10 +9168,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F191" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9239,10 +9197,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F192" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9268,10 +9226,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F193" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9297,10 +9255,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F194" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9326,10 +9284,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F195" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9355,10 +9313,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F196" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G196" t="n">
         <v>12</v>
@@ -9384,10 +9342,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9413,10 +9371,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F198" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9442,10 +9400,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F199" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9471,10 +9429,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F200" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9500,10 +9458,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F201" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -9587,10 +9545,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F204" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9703,10 +9661,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F208" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9732,10 +9690,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F209" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9761,10 +9719,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F210" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9790,10 +9748,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F211" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G211" t="n">
         <v>11</v>
@@ -9819,10 +9777,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F212" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9848,10 +9806,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F213" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9906,10 +9864,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F215" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -9935,10 +9893,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F216" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9964,10 +9922,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F217" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9993,10 +9951,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F218" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10022,10 +9980,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F219" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -10051,10 +10009,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F220" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10080,10 +10038,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F221" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -10109,10 +10067,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F222" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G222" t="n">
         <v>25</v>
@@ -10138,10 +10096,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F223" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10167,10 +10125,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F224" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -10196,10 +10154,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F225" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10254,10 +10212,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F227" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10283,10 +10241,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F228" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10312,10 +10270,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F229" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10341,10 +10299,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F230" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -10370,10 +10328,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F231" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10399,10 +10357,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F232" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G232" t="n">
         <v>5</v>
@@ -10428,10 +10386,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F233" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10457,10 +10415,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F234" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G234" t="n">
         <v>5</v>
@@ -10486,10 +10444,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F235" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -10515,10 +10473,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F236" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10544,10 +10502,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F237" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10573,10 +10531,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F238" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10602,10 +10560,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F239" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10631,10 +10589,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F240" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10660,10 +10618,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F241" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10689,10 +10647,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F242" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10718,10 +10676,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F243" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10747,10 +10705,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F244" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10776,10 +10734,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10805,10 +10763,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F246" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10834,10 +10792,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F247" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10863,10 +10821,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F248" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G248" t="n">
         <v>5</v>
@@ -10892,10 +10850,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F249" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10921,10 +10879,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F250" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10950,10 +10908,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F251" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11008,10 +10966,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F253" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11037,10 +10995,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F254" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11066,10 +11024,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F255" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -11095,10 +11053,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F256" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G256" t="n">
         <v>6</v>
@@ -11124,10 +11082,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F257" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11153,10 +11111,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F258" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -11182,10 +11140,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F259" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11211,10 +11169,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F260" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11240,10 +11198,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F261" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11269,10 +11227,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F262" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11298,10 +11256,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F263" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11327,10 +11285,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -11414,10 +11372,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F267" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11472,10 +11430,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F269" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G269" t="n">
         <v>9</v>
@@ -11501,10 +11459,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F270" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11530,10 +11488,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F271" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11617,10 +11575,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F274" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11646,10 +11604,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F275" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11675,10 +11633,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F276" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11704,10 +11662,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F277" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11733,10 +11691,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F278" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11762,10 +11720,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F279" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11791,10 +11749,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F280" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -11849,10 +11807,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F282" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11878,10 +11836,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F283" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11907,10 +11865,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F284" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11936,10 +11894,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F285" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11965,10 +11923,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F286" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11994,10 +11952,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F287" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G287" t="n">
         <v>10</v>
@@ -12023,10 +11981,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F288" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G288" t="n">
         <v>6</v>
@@ -12081,10 +12039,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F290" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -12110,10 +12068,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F291" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12139,10 +12097,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F292" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12168,10 +12126,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F293" t="s">
-        <v>504</v>
+        <v>26</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12197,10 +12155,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F294" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -12226,10 +12184,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F295" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12255,10 +12213,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F296" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12284,10 +12242,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F297" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -12313,10 +12271,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F298" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12342,10 +12300,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F299" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12371,10 +12329,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F300" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12400,10 +12358,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F301" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12429,10 +12387,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F302" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G302" t="n">
         <v>4</v>
@@ -12458,10 +12416,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F303" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12487,10 +12445,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F304" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12516,10 +12474,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F305" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12545,10 +12503,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F306" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G306" t="n">
         <v>21</v>
@@ -12574,10 +12532,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F307" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12603,10 +12561,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F308" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12632,10 +12590,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F309" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12661,10 +12619,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F310" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12690,10 +12648,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F311" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G311" t="n">
         <v>6</v>
@@ -12719,10 +12677,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F312" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12748,10 +12706,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F313" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12777,10 +12735,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F314" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12806,10 +12764,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F315" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12835,10 +12793,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F316" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12864,10 +12822,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F317" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12893,10 +12851,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F318" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G318" t="n">
         <v>10</v>
@@ -12922,10 +12880,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F319" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12951,10 +12909,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F320" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12980,10 +12938,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F321" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13009,10 +12967,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F322" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -13038,10 +12996,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F323" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -13067,10 +13025,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F324" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13096,10 +13054,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F325" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13125,10 +13083,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F326" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13154,10 +13112,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F327" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G327" t="n">
         <v>9</v>
@@ -13183,10 +13141,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F328" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13212,10 +13170,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F329" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13241,10 +13199,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F330" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G330" t="n">
         <v>16</v>
@@ -13299,10 +13257,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F332" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -13357,10 +13315,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F334" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13386,10 +13344,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F335" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13415,10 +13373,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>162</v>
+      </c>
+      <c r="F336" t="s">
         <v>163</v>
-      </c>
-      <c r="F336" t="s">
-        <v>164</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13473,10 +13431,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F338" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G338" t="n">
         <v>6</v>
@@ -13502,10 +13460,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F339" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13531,10 +13489,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F340" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13560,10 +13518,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F341" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13589,10 +13547,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F342" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13618,10 +13576,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F343" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13676,10 +13634,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F345" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13705,10 +13663,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F346" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13734,10 +13692,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F347" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13792,10 +13750,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F349" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13850,10 +13808,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F351" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G351" t="n">
         <v>4</v>
@@ -13879,10 +13837,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F352" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -13908,10 +13866,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F353" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13937,10 +13895,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F354" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13966,10 +13924,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F355" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13995,10 +13953,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F356" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14024,10 +13982,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F357" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14053,10 +14011,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F358" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14082,10 +14040,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F359" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14111,10 +14069,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F360" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14140,10 +14098,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F361" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14169,10 +14127,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F362" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14198,10 +14156,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F363" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14227,10 +14185,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F364" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G364" t="n">
         <v>50</v>
@@ -14256,10 +14214,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F365" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G365" t="n">
         <v>71</v>
@@ -14285,10 +14243,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F366" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G366" t="n">
         <v>51</v>
@@ -14314,10 +14272,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>162</v>
+      </c>
+      <c r="F367" t="s">
         <v>163</v>
-      </c>
-      <c r="F367" t="s">
-        <v>164</v>
       </c>
       <c r="G367" t="n">
         <v>55</v>
@@ -14343,10 +14301,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F368" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14372,10 +14330,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F369" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14401,10 +14359,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F370" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14430,10 +14388,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F371" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14459,10 +14417,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F372" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14488,10 +14446,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F373" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14517,10 +14475,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F374" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14546,10 +14504,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F375" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14575,10 +14533,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F376" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G376" t="n">
         <v>5</v>
@@ -14604,10 +14562,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F377" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14633,10 +14591,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F378" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14662,10 +14620,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F379" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14691,10 +14649,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F380" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14720,10 +14678,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F381" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14749,10 +14707,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F382" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14778,10 +14736,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F383" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G383" t="n">
         <v>7</v>
@@ -14807,10 +14765,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F384" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14836,10 +14794,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F385" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G385" t="n">
         <v>474</v>
@@ -14865,10 +14823,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F386" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14894,10 +14852,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F387" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14923,10 +14881,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>172</v>
+      </c>
+      <c r="F388" t="s">
         <v>173</v>
-      </c>
-      <c r="F388" t="s">
-        <v>174</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14952,10 +14910,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F389" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14981,10 +14939,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F390" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15010,10 +14968,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F391" t="s">
-        <v>676</v>
+        <v>130</v>
       </c>
       <c r="G391" t="n">
         <v>3</v>
@@ -15039,10 +14997,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F392" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15097,10 +15055,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F394" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15126,10 +15084,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F395" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15155,10 +15113,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F396" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15184,10 +15142,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F397" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15213,10 +15171,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F398" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15242,10 +15200,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F399" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15271,10 +15229,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F400" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15300,10 +15258,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F401" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15329,10 +15287,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F402" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15358,10 +15316,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F403" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G403" t="n">
         <v>10</v>
@@ -15387,10 +15345,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F404" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G404" t="n">
         <v>13</v>
@@ -15416,10 +15374,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F405" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15445,10 +15403,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F406" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15474,10 +15432,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F407" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15503,10 +15461,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F408" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15532,10 +15490,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F409" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15561,10 +15519,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F410" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15590,10 +15548,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F411" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15619,10 +15577,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F412" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15648,10 +15606,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F413" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15677,10 +15635,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F414" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15706,10 +15664,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F415" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15735,10 +15693,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F416" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15764,10 +15722,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F417" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15793,10 +15751,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F418" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15822,10 +15780,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>306</v>
+      </c>
+      <c r="F419" t="s">
         <v>307</v>
-      </c>
-      <c r="F419" t="s">
-        <v>308</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15851,10 +15809,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F420" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15909,10 +15867,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F422" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15938,10 +15896,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F423" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15967,13 +15925,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F424" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16025,10 +15983,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F426" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -16054,10 +16012,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F427" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16083,10 +16041,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F428" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G428" t="n">
         <v>38</v>
@@ -16112,10 +16070,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F429" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G429" t="n">
         <v>3</v>
@@ -16170,10 +16128,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F431" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16199,10 +16157,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F432" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G432" t="n">
         <v>9</v>
@@ -16228,10 +16186,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F433" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16257,10 +16215,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F434" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G434" t="n">
         <v>4</v>
@@ -16286,10 +16244,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F435" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G435" t="n">
         <v>699</v>
@@ -16315,10 +16273,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F436" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16344,10 +16302,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F437" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G437" t="n">
         <v>71</v>
@@ -16373,10 +16331,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F438" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G438" t="n">
         <v>13</v>
@@ -16402,10 +16360,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>158</v>
+      </c>
+      <c r="F439" t="s">
         <v>159</v>
-      </c>
-      <c r="F439" t="s">
-        <v>160</v>
       </c>
       <c r="G439" t="n">
         <v>3</v>
@@ -16431,10 +16389,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F440" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16460,10 +16418,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F441" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16489,10 +16447,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F442" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16518,10 +16476,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F443" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16547,10 +16505,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F444" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16576,10 +16534,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F445" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -16605,10 +16563,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F446" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G446" t="n">
         <v>9</v>
@@ -16634,10 +16592,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F447" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16663,10 +16621,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F448" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16692,10 +16650,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F449" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16721,10 +16679,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F450" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16750,10 +16708,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F451" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G451" t="n">
         <v>20</v>
@@ -16779,10 +16737,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F452" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16808,10 +16766,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F453" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16837,10 +16795,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>270</v>
+      </c>
+      <c r="F454" t="s">
         <v>271</v>
-      </c>
-      <c r="F454" t="s">
-        <v>272</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16866,10 +16824,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F455" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16895,10 +16853,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F456" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16924,10 +16882,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F457" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16953,10 +16911,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F458" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16982,10 +16940,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F459" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17011,10 +16969,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F460" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17040,10 +16998,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F461" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17069,10 +17027,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>296</v>
+      </c>
+      <c r="F462" t="s">
         <v>297</v>
-      </c>
-      <c r="F462" t="s">
-        <v>298</v>
       </c>
       <c r="G462" t="n">
         <v>7</v>
@@ -17098,10 +17056,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F463" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17127,10 +17085,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>294</v>
+      </c>
+      <c r="F464" t="s">
         <v>295</v>
-      </c>
-      <c r="F464" t="s">
-        <v>296</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17156,10 +17114,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F465" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17185,10 +17143,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F466" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17214,10 +17172,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F467" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -17243,10 +17201,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F468" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17272,10 +17230,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F469" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17301,10 +17259,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F470" t="s">
-        <v>800</v>
+        <v>418</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17330,10 +17288,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F471" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17359,10 +17317,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F472" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17388,10 +17346,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F473" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17475,10 +17433,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F476" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17504,10 +17462,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F477" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17591,10 +17549,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F480" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17620,10 +17578,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F481" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17649,10 +17607,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="F482" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17678,10 +17636,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F483" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17707,10 +17665,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="F484" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17736,10 +17694,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="F485" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G485" t="n">
         <v>8</v>
@@ -17765,10 +17723,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F486" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17794,10 +17752,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F487" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G487" t="n">
         <v>10</v>
@@ -17823,10 +17781,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F488" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17852,10 +17810,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F489" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G489" t="n">
         <v>5</v>
@@ -17881,10 +17839,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F490" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17910,10 +17868,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F491" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17939,10 +17897,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F492" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17968,10 +17926,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F493" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17997,10 +17955,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F494" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18026,10 +17984,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F495" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18055,10 +18013,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F496" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18084,10 +18042,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F497" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18113,10 +18071,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F498" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G498" t="n">
         <v>16</v>
@@ -18142,10 +18100,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F499" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18171,10 +18129,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F500" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G500" t="n">
         <v>3</v>
@@ -18200,10 +18158,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F501" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18229,10 +18187,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F502" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18258,10 +18216,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="F503" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -18287,10 +18245,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="F504" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18316,10 +18274,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F505" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18345,10 +18303,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F506" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G506" t="n">
         <v>13</v>
@@ -18374,10 +18332,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F507" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18403,10 +18361,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F508" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18432,10 +18390,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F509" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18461,10 +18419,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F510" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18490,10 +18448,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F511" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18519,10 +18477,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F512" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G512" t="n">
         <v>2</v>
@@ -18548,10 +18506,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F513" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G513" t="n">
         <v>3</v>
@@ -18577,10 +18535,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F514" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18606,10 +18564,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F515" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18635,10 +18593,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F516" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18664,10 +18622,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
+        <v>224</v>
+      </c>
+      <c r="F517" t="s">
         <v>225</v>
-      </c>
-      <c r="F517" t="s">
-        <v>226</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18693,10 +18651,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F518" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18722,10 +18680,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F519" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18751,10 +18709,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F520" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G520" t="n">
         <v>3</v>
@@ -18780,10 +18738,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F521" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -18809,10 +18767,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F522" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G522" t="n">
         <v>4</v>
@@ -18838,10 +18796,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="F523" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18867,10 +18825,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F524" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -18896,10 +18854,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F525" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -18925,10 +18883,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F526" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18954,10 +18912,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F527" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -18983,10 +18941,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F528" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19012,10 +18970,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F529" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -19041,10 +18999,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F530" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19070,10 +19028,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F531" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G531" t="n">
         <v>2</v>
@@ -19099,10 +19057,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F532" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G532" t="n">
         <v>3</v>
@@ -19128,10 +19086,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F533" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G533" t="n">
         <v>4</v>
@@ -19157,10 +19115,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F534" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G534" t="n">
         <v>3</v>
@@ -19186,10 +19144,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F535" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19215,10 +19173,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F536" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G536" t="n">
         <v>4</v>
@@ -19244,10 +19202,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F537" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G537" t="n">
         <v>6</v>
@@ -19273,10 +19231,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F538" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19302,10 +19260,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F539" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19331,10 +19289,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F540" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19360,10 +19318,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F541" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19389,10 +19347,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F542" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19418,10 +19376,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F543" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19447,10 +19405,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F544" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19505,10 +19463,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="F546" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G546" t="n">
         <v>2</v>
@@ -19534,10 +19492,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F547" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19563,10 +19521,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F548" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -19592,10 +19550,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F549" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19621,10 +19579,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F550" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19650,10 +19608,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F551" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -19679,10 +19637,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F552" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19708,10 +19666,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F553" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19737,10 +19695,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F554" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19766,10 +19724,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F555" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19795,10 +19753,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F556" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19824,10 +19782,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F557" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19853,10 +19811,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
+        <v>164</v>
+      </c>
+      <c r="F558" t="s">
         <v>165</v>
-      </c>
-      <c r="F558" t="s">
-        <v>166</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19882,10 +19840,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F559" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G559" t="n">
         <v>3</v>
@@ -19911,10 +19869,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F560" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19940,10 +19898,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F561" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19969,10 +19927,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F562" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20027,10 +19985,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F564" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20056,10 +20014,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F565" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20085,10 +20043,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F566" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20114,10 +20072,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F567" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20143,10 +20101,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F568" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20172,10 +20130,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="F569" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20201,10 +20159,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F570" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20230,10 +20188,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F571" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G571" t="n">
         <v>2</v>
@@ -20259,10 +20217,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="F572" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20288,10 +20246,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="F573" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20317,10 +20275,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="F574" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20346,10 +20304,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F575" t="s">
-        <v>938</v>
+        <v>102</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20375,10 +20333,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F576" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20404,10 +20362,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F577" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20433,10 +20391,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F578" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20462,10 +20420,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F579" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20491,10 +20449,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F580" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20520,10 +20478,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F581" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20549,10 +20507,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F582" t="s">
-        <v>952</v>
+        <v>430</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20578,10 +20536,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F583" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20607,10 +20565,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F584" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20636,10 +20594,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F585" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20665,10 +20623,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F586" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20694,10 +20652,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F587" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20723,10 +20681,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F588" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20752,10 +20710,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F589" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20781,10 +20739,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F590" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20810,10 +20768,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F591" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20839,10 +20797,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F592" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -20868,10 +20826,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F593" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20926,10 +20884,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F595" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -20955,10 +20913,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="F596" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -20984,10 +20942,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F597" t="s">
-        <v>980</v>
+        <v>911</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21013,10 +20971,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F598" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G598" t="n">
         <v>4</v>
@@ -21042,10 +21000,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F599" t="s">
-        <v>984</v>
+        <v>913</v>
       </c>
       <c r="G599" t="n">
         <v>5</v>
@@ -21071,10 +21029,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F600" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21100,10 +21058,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F601" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="G601" t="n">
         <v>3</v>
@@ -21129,10 +21087,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="F602" t="s">
-        <v>990</v>
+        <v>915</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21158,10 +21116,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F603" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21187,10 +21145,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F604" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G604" t="n">
         <v>3</v>
@@ -21216,10 +21174,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F605" t="s">
-        <v>996</v>
+        <v>917</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21245,10 +21203,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="F606" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21274,10 +21232,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F607" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G607" t="n">
         <v>5</v>
@@ -21303,10 +21261,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F608" t="s">
-        <v>1002</v>
+        <v>919</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21332,10 +21290,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="F609" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21361,10 +21319,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="F610" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21390,10 +21348,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F611" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21419,10 +21377,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="F612" t="s">
-        <v>1010</v>
+        <v>923</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21448,10 +21406,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F613" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21477,10 +21435,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="F614" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21506,10 +21464,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F615" t="s">
-        <v>1014</v>
+        <v>921</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21535,13 +21493,13 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="F616" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="G616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -21564,10 +21522,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="F617" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21593,10 +21551,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="F618" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21622,10 +21580,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="F619" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21651,10 +21609,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="F620" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21680,10 +21638,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="F621" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21709,10 +21667,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="F622" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21738,10 +21696,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="F623" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -21767,10 +21725,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="F624" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -21796,10 +21754,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="F625" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -21825,10 +21783,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="F626" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -21854,10 +21812,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="F627" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -21883,10 +21841,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="F628" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -21912,13 +21870,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="F629" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -21941,10 +21899,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="F630" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -21970,10 +21928,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="F631" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -21999,10 +21957,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="F632" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22028,10 +21986,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="F633" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22057,10 +22015,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F634" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22086,10 +22044,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="F635" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22115,10 +22073,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="F636" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22144,10 +22102,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="F637" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22173,10 +22131,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="F638" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22202,10 +22160,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="F639" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22231,10 +22189,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="F640" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22260,10 +22218,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="F641" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22289,10 +22247,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="F642" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22318,10 +22276,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="F643" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22347,10 +22305,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="F644" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22376,10 +22334,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="F645" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22405,10 +22363,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="F646" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="G646" t="n">
         <v>2</v>
@@ -22434,10 +22392,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="F647" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22463,10 +22421,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="F648" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22492,10 +22450,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="F649" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22521,10 +22479,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="F650" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22550,10 +22508,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="F651" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22579,10 +22537,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="F652" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -22608,10 +22566,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="F653" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -22666,10 +22624,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="F655" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="G655" t="n">
         <v>3</v>
@@ -22695,10 +22653,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="F656" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -22724,10 +22682,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="F657" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -22753,10 +22711,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="F658" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -22782,10 +22740,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="F659" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -22811,10 +22769,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="F660" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -22840,10 +22798,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="F661" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -22869,10 +22827,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="F662" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -22898,10 +22856,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="F663" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -22927,10 +22885,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F664" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="G664" t="n">
         <v>2</v>
